--- a/biology/Médecine/Aérophagie/Aérophagie.xlsx
+++ b/biology/Médecine/Aérophagie/Aérophagie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A%C3%A9rophagie</t>
+          <t>Aérophagie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aérophagie, signifiant littéralement « manger de l'air », est un phénomène physiologique concernant la déglutition, et par lequel s'introduisent, avec le bol alimentaire, de petites quantités d'air dans l'œsophage, puis le reste du système digestif. Dans certains cas, elle est excessive et devient gênante.
 Elle peut entraîner :
